--- a/data/opec_upstream/world_oil_production.xlsx
+++ b/data/opec_upstream/world_oil_production.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willrodman/Desktop/opec_upstream/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willrodman/Desktop/willcrodman.github.io/data/opec_upstream/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D61C668-3484-BD41-BF57-9BE8046041E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD540D90-6E2D-3E42-90C4-AA3C9C7C39E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 3.5" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="export" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>Section 3 — Oil data: upstream</t>
   </si>
@@ -1022,10 +1022,10 @@
   <dimension ref="A1:BL101"/>
   <sheetViews>
     <sheetView showGridLines="0" showOutlineSymbols="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AJ55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BF76" sqref="BF76"/>
+      <selection pane="bottomRight" activeCell="A69" activeCellId="1" sqref="A67:XFD67 A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -14661,10 +14661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3A9E341-6427-874F-B381-9BC31B2D4A13}">
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -23784,6 +23784,394 @@
         <v>1464.0219999999999</v>
       </c>
     </row>
+    <row r="48" spans="1:64" ht="15" customHeight="1">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>8107.4130000000005</v>
+      </c>
+      <c r="C48">
+        <v>8758.1980000000021</v>
+      </c>
+      <c r="D48">
+        <v>9871.9609999999993</v>
+      </c>
+      <c r="E48">
+        <v>10887.454000000002</v>
+      </c>
+      <c r="F48">
+        <v>12321.423000000001</v>
+      </c>
+      <c r="G48">
+        <v>13630.828</v>
+      </c>
+      <c r="H48">
+        <v>15019.000000000002</v>
+      </c>
+      <c r="I48">
+        <v>16024.674000000003</v>
+      </c>
+      <c r="J48">
+        <v>17853.883000000002</v>
+      </c>
+      <c r="K48">
+        <v>19845.003999999997</v>
+      </c>
+      <c r="L48">
+        <v>22276.788999999997</v>
+      </c>
+      <c r="M48">
+        <v>24109.397000000004</v>
+      </c>
+      <c r="N48">
+        <v>25592.052000000003</v>
+      </c>
+      <c r="O48">
+        <v>29023.137999999999</v>
+      </c>
+      <c r="P48">
+        <v>28827.614999999998</v>
+      </c>
+      <c r="Q48">
+        <v>25412.580999999995</v>
+      </c>
+      <c r="R48">
+        <v>28724.135000000006</v>
+      </c>
+      <c r="S48">
+        <v>29152.262999999999</v>
+      </c>
+      <c r="T48">
+        <v>27680.693999999992</v>
+      </c>
+      <c r="U48">
+        <v>28801.423000000006</v>
+      </c>
+      <c r="V48">
+        <v>24834.709000000003</v>
+      </c>
+      <c r="W48">
+        <v>20518.12</v>
+      </c>
+      <c r="X48">
+        <v>17441.067999999999</v>
+      </c>
+      <c r="Y48">
+        <v>15521.163999999999</v>
+      </c>
+      <c r="Z48">
+        <v>14808.722</v>
+      </c>
+      <c r="AA48">
+        <v>13966.467000000002</v>
+      </c>
+      <c r="AB48">
+        <v>16660.718000000001</v>
+      </c>
+      <c r="AC48">
+        <v>15999.725000000002</v>
+      </c>
+      <c r="AD48">
+        <v>18197.999999999996</v>
+      </c>
+      <c r="AE48">
+        <v>19667.046999999999</v>
+      </c>
+      <c r="AF48">
+        <v>21220.323</v>
+      </c>
+      <c r="AG48">
+        <v>21357.168999999998</v>
+      </c>
+      <c r="AH48">
+        <v>23091.562000000002</v>
+      </c>
+      <c r="AI48">
+        <v>23519.740999999998</v>
+      </c>
+      <c r="AJ48">
+        <v>23927.832000000002</v>
+      </c>
+      <c r="AK48">
+        <v>24021.569</v>
+      </c>
+      <c r="AL48">
+        <v>24313.114000000005</v>
+      </c>
+      <c r="AM48">
+        <v>25074.938000000002</v>
+      </c>
+      <c r="AN48">
+        <v>27194.055999999993</v>
+      </c>
+      <c r="AO48">
+        <v>25662.436000000002</v>
+      </c>
+      <c r="AP48">
+        <v>27227.117999999999</v>
+      </c>
+      <c r="AQ48">
+        <v>26458.591999999997</v>
+      </c>
+      <c r="AR48">
+        <v>24224.377</v>
+      </c>
+      <c r="AS48">
+        <v>26691.449463409124</v>
+      </c>
+      <c r="AT48">
+        <v>29533.631811094405</v>
+      </c>
+      <c r="AU48">
+        <v>30772.307999999997</v>
+      </c>
+      <c r="AV48">
+        <v>31014.207687843191</v>
+      </c>
+      <c r="AW48">
+        <v>30514.892999999996</v>
+      </c>
+      <c r="AX48">
+        <v>31505.957000000002</v>
+      </c>
+      <c r="AY48">
+        <v>28491.886000000002</v>
+      </c>
+      <c r="AZ48">
+        <v>28829.806000000004</v>
+      </c>
+      <c r="BA48">
+        <v>29646.866999999998</v>
+      </c>
+      <c r="BB48">
+        <v>31924.78</v>
+      </c>
+      <c r="BC48">
+        <v>31024.734</v>
+      </c>
+      <c r="BD48">
+        <v>30075.002999999997</v>
+      </c>
+      <c r="BE48">
+        <v>31061.709999999995</v>
+      </c>
+      <c r="BF48">
+        <v>32467.373</v>
+      </c>
+      <c r="BG48">
+        <v>31636.263999999996</v>
+      </c>
+      <c r="BH48">
+        <v>31216.587</v>
+      </c>
+      <c r="BI48">
+        <v>29375.778000000002</v>
+      </c>
+      <c r="BJ48">
+        <v>25659.265000000003</v>
+      </c>
+      <c r="BK48">
+        <v>26363.078000000001</v>
+      </c>
+      <c r="BL48">
+        <v>28894.930999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:64" ht="15" customHeight="1">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>8214.9520000000011</v>
+      </c>
+      <c r="C49">
+        <v>8512.3369999999995</v>
+      </c>
+      <c r="D49">
+        <v>8776.643</v>
+      </c>
+      <c r="E49">
+        <v>9065.9750000000004</v>
+      </c>
+      <c r="F49">
+        <v>9223.0720000000019</v>
+      </c>
+      <c r="G49">
+        <v>9499.1139999999996</v>
+      </c>
+      <c r="H49">
+        <v>10075.844999999998</v>
+      </c>
+      <c r="I49">
+        <v>10745.413999999999</v>
+      </c>
+      <c r="J49">
+        <v>11154.328000000001</v>
+      </c>
+      <c r="K49">
+        <v>11451.813000000002</v>
+      </c>
+      <c r="L49">
+        <v>12071.725999999999</v>
+      </c>
+      <c r="M49">
+        <v>12266.440999999999</v>
+      </c>
+      <c r="N49">
+        <v>12347.468999999999</v>
+      </c>
+      <c r="O49">
+        <v>12355.438</v>
+      </c>
+      <c r="P49">
+        <v>11885.426000000001</v>
+      </c>
+      <c r="Q49">
+        <v>11549.330000000002</v>
+      </c>
+      <c r="R49">
+        <v>11566.172999999999</v>
+      </c>
+      <c r="S49">
+        <v>12393.472</v>
+      </c>
+      <c r="T49">
+        <v>13403.149000000001</v>
+      </c>
+      <c r="U49">
+        <v>14202.686</v>
+      </c>
+      <c r="V49">
+        <v>14739.375999999998</v>
+      </c>
+      <c r="W49">
+        <v>15173.632</v>
+      </c>
+      <c r="X49">
+        <v>15904.875999999998</v>
+      </c>
+      <c r="Y49">
+        <v>16337.767</v>
+      </c>
+      <c r="Z49">
+        <v>17037.723000000002</v>
+      </c>
+      <c r="AA49">
+        <v>17280.203999999998</v>
+      </c>
+      <c r="AB49">
+        <v>16645.903000000002</v>
+      </c>
+      <c r="AC49">
+        <v>16711.635999999999</v>
+      </c>
+      <c r="AD49">
+        <v>16475.063999999998</v>
+      </c>
+      <c r="AE49">
+        <v>15727.865000000002</v>
+      </c>
+      <c r="AF49">
+        <v>15729.403</v>
+      </c>
+      <c r="AG49">
+        <v>16106.114000000001</v>
+      </c>
+      <c r="AH49">
+        <v>16128.780999999999</v>
+      </c>
+      <c r="AI49">
+        <v>16072.916999999999</v>
+      </c>
+      <c r="AJ49">
+        <v>16739.120999999999</v>
+      </c>
+      <c r="AK49">
+        <v>16798.191999999999</v>
+      </c>
+      <c r="AL49">
+        <v>17351.058999999997</v>
+      </c>
+      <c r="AM49">
+        <v>17568.197999999997</v>
+      </c>
+      <c r="AN49">
+        <v>17280.650000000001</v>
+      </c>
+      <c r="AO49">
+        <v>16727.653999999999</v>
+      </c>
+      <c r="AP49">
+        <v>17160.153999999999</v>
+      </c>
+      <c r="AQ49">
+        <v>16927.968000000001</v>
+      </c>
+      <c r="AR49">
+        <v>16862.992999999999</v>
+      </c>
+      <c r="AS49">
+        <v>16543.79</v>
+      </c>
+      <c r="AT49">
+        <v>15961.181999999999</v>
+      </c>
+      <c r="AU49">
+        <v>15139.926999999998</v>
+      </c>
+      <c r="AV49">
+        <v>14532.313999999998</v>
+      </c>
+      <c r="AW49">
+        <v>14244.054000000002</v>
+      </c>
+      <c r="AX49">
+        <v>13614.880000000001</v>
+      </c>
+      <c r="AY49">
+        <v>13378.876</v>
+      </c>
+      <c r="AZ49">
+        <v>13211.736000000001</v>
+      </c>
+      <c r="BA49">
+        <v>13013.553999999998</v>
+      </c>
+      <c r="BB49">
+        <v>13597.611999999999</v>
+      </c>
+      <c r="BC49">
+        <v>14389.835000000001</v>
+      </c>
+      <c r="BD49">
+        <v>15665.283000000001</v>
+      </c>
+      <c r="BE49">
+        <v>16132.227000000001</v>
+      </c>
+      <c r="BF49">
+        <v>15321.976000000001</v>
+      </c>
+      <c r="BG49">
+        <v>15578.505999999999</v>
+      </c>
+      <c r="BH49">
+        <v>17045.54</v>
+      </c>
+      <c r="BI49">
+        <v>18238.632999999998</v>
+      </c>
+      <c r="BJ49">
+        <v>17320.822999999997</v>
+      </c>
+      <c r="BK49">
+        <v>17150.787</v>
+      </c>
+      <c r="BL49">
+        <v>17596.635999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
